--- a/DataTable/BoxTable.xlsx
+++ b/DataTable/BoxTable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
     <t>Id</t>
   </si>
@@ -42,13 +42,7 @@
     <t>#策划备注</t>
   </si>
   <si>
-    <t>商店1，卖血瓶，面包</t>
-  </si>
-  <si>
-    <t>商店2，卖大量血瓶</t>
-  </si>
-  <si>
-    <t>商店3，卖大量面包</t>
+    <t>金钱+10</t>
   </si>
 </sst>
 </file>
@@ -58,10 +52,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,30 +64,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,43 +80,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -154,7 +90,67 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,30 +158,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,9 +171,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,37 +217,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,139 +385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,33 +413,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,16 +447,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,13 +485,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,148 +513,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -675,7 +662,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1029,7 +1016,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1072,33 +1059,21 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
